--- a/api/charts/sampleDoc/ExcelChartAPISample.xlsx
+++ b/api/charts/sampleDoc/ExcelChartAPISample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binwang\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binwang\Documents\Src\mvp\api\charts\sampleDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FBA430C-D90A-4405-9114-DD196532B820}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1914B6D1-5B00-47AF-B816-9CFA9921D71F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6885" firstSheet="1" activeTab="1" xr2:uid="{176647C4-9808-4798-AFF7-CD3AA9FE0282}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6885" xr2:uid="{176647C4-9808-4798-AFF7-CD3AA9FE0282}"/>
   </bookViews>
   <sheets>
     <sheet name="Walkthrough" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="m/d"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -103,7 +103,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2100,7 +2100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880ECD5B-935F-4699-9545-2D34B0B220F7}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2197,7 +2197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAF6F92-D4B6-4981-B7AE-F2412EA6C551}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -2258,7 +2258,7 @@
         <v>0.25</v>
       </c>
       <c r="H2" s="3">
-        <f>C2+D2</f>
+        <f t="shared" ref="H2:H33" si="0">C2+D2</f>
         <v>13898</v>
       </c>
       <c r="I2" t="e">
@@ -2293,7 +2293,7 @@
         <v>0.25</v>
       </c>
       <c r="H3" s="3">
-        <f>C3+D3</f>
+        <f t="shared" si="0"/>
         <v>14093</v>
       </c>
       <c r="I3" t="e">
@@ -2328,7 +2328,7 @@
         <v>0.25</v>
       </c>
       <c r="H4" s="3">
-        <f>C4+D4</f>
+        <f t="shared" si="0"/>
         <v>18029</v>
       </c>
       <c r="I4" t="e">
@@ -2363,7 +2363,7 @@
         <v>0.25</v>
       </c>
       <c r="H5" s="3">
-        <f>C5+D5</f>
+        <f t="shared" si="0"/>
         <v>27757</v>
       </c>
       <c r="I5" t="e">
@@ -2398,7 +2398,7 @@
         <v>0.25</v>
       </c>
       <c r="H6" s="3">
-        <f>C6+D6</f>
+        <f t="shared" si="0"/>
         <v>39205</v>
       </c>
       <c r="I6" t="e">
@@ -2433,7 +2433,7 @@
         <v>0.25</v>
       </c>
       <c r="H7" s="3">
-        <f>C7+D7</f>
+        <f t="shared" si="0"/>
         <v>15370</v>
       </c>
       <c r="I7">
@@ -2468,7 +2468,7 @@
         <v>0.25</v>
       </c>
       <c r="H8" s="3">
-        <f>C8+D8</f>
+        <f t="shared" si="0"/>
         <v>15370</v>
       </c>
       <c r="I8">
@@ -2503,7 +2503,7 @@
         <v>0.25</v>
       </c>
       <c r="H9" s="3">
-        <f>C9+D9</f>
+        <f t="shared" si="0"/>
         <v>30650</v>
       </c>
       <c r="I9" t="e">
@@ -2538,7 +2538,7 @@
         <v>0.25</v>
       </c>
       <c r="H10" s="3">
-        <f>C10+D10</f>
+        <f t="shared" si="0"/>
         <v>22525</v>
       </c>
       <c r="I10">
@@ -2573,7 +2573,7 @@
         <v>0.25</v>
       </c>
       <c r="H11" s="3">
-        <f>C11+D11</f>
+        <f t="shared" si="0"/>
         <v>26981</v>
       </c>
       <c r="I11" t="e">
@@ -2608,7 +2608,7 @@
         <v>0.25</v>
       </c>
       <c r="H12" s="3">
-        <f>C12+D12</f>
+        <f t="shared" si="0"/>
         <v>29204</v>
       </c>
       <c r="I12">
@@ -2643,7 +2643,7 @@
         <v>0.25</v>
       </c>
       <c r="H13" s="3">
-        <f>C13+D13</f>
+        <f t="shared" si="0"/>
         <v>40644</v>
       </c>
       <c r="I13">
@@ -2678,7 +2678,7 @@
         <v>0.25</v>
       </c>
       <c r="H14" s="3">
-        <f>C14+D14</f>
+        <f t="shared" si="0"/>
         <v>25925</v>
       </c>
       <c r="I14">
@@ -2713,7 +2713,7 @@
         <v>0.25</v>
       </c>
       <c r="H15" s="3">
-        <f>C15+D15</f>
+        <f t="shared" si="0"/>
         <v>17506</v>
       </c>
       <c r="I15" t="e">
@@ -2748,7 +2748,7 @@
         <v>0.25</v>
       </c>
       <c r="H16" s="3">
-        <f>C16+D16</f>
+        <f t="shared" si="0"/>
         <v>22109</v>
       </c>
       <c r="I16" t="e">
@@ -2783,7 +2783,7 @@
         <v>0.5</v>
       </c>
       <c r="H17" s="3">
-        <f>C17+D17</f>
+        <f t="shared" si="0"/>
         <v>13448</v>
       </c>
       <c r="I17" t="e">
@@ -2818,7 +2818,7 @@
         <v>0.5</v>
       </c>
       <c r="H18" s="3">
-        <f>C18+D18</f>
+        <f t="shared" si="0"/>
         <v>9061</v>
       </c>
       <c r="I18" t="e">
@@ -2853,7 +2853,7 @@
         <v>0.5</v>
       </c>
       <c r="H19" s="3">
-        <f>C19+D19</f>
+        <f t="shared" si="0"/>
         <v>19001</v>
       </c>
       <c r="I19" t="e">
@@ -2888,7 +2888,7 @@
         <v>0.5</v>
       </c>
       <c r="H20" s="3">
-        <f>C20+D20</f>
+        <f t="shared" si="0"/>
         <v>25625</v>
       </c>
       <c r="I20" t="e">
@@ -2923,7 +2923,7 @@
         <v>0.5</v>
       </c>
       <c r="H21" s="3">
-        <f>C21+D21</f>
+        <f t="shared" si="0"/>
         <v>22109</v>
       </c>
       <c r="I21" t="e">
@@ -2958,7 +2958,7 @@
         <v>0.5</v>
       </c>
       <c r="H22" s="3">
-        <f>C22+D22</f>
+        <f t="shared" si="0"/>
         <v>6805</v>
       </c>
       <c r="I22" t="e">
@@ -2993,7 +2993,7 @@
         <v>0.5</v>
       </c>
       <c r="H23" s="3">
-        <f>C23+D23</f>
+        <f t="shared" si="0"/>
         <v>9389</v>
       </c>
       <c r="I23" t="e">
@@ -3028,7 +3028,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" s="3">
-        <f>C24+D24</f>
+        <f t="shared" si="0"/>
         <v>18169</v>
       </c>
       <c r="I24" t="e">
@@ -3063,7 +3063,7 @@
         <v>0.5</v>
       </c>
       <c r="H25" s="3">
-        <f>C25+D25</f>
+        <f t="shared" si="0"/>
         <v>21124</v>
       </c>
       <c r="I25" t="e">
@@ -3098,7 +3098,7 @@
         <v>0.5</v>
       </c>
       <c r="H26" s="3">
-        <f>C26+D26</f>
+        <f t="shared" si="0"/>
         <v>21365</v>
       </c>
       <c r="I26">
@@ -3133,7 +3133,7 @@
         <v>0.5</v>
       </c>
       <c r="H27" s="3">
-        <f>C27+D27</f>
+        <f t="shared" si="0"/>
         <v>37105</v>
       </c>
       <c r="I27">
@@ -3168,7 +3168,7 @@
         <v>0.35</v>
       </c>
       <c r="H28" s="3">
-        <f>C28+D28</f>
+        <f t="shared" si="0"/>
         <v>47617</v>
       </c>
       <c r="I28">
@@ -3203,7 +3203,7 @@
         <v>0.35</v>
       </c>
       <c r="H29" s="3">
-        <f>C29+D29</f>
+        <f t="shared" si="0"/>
         <v>15440</v>
       </c>
       <c r="I29" t="e">
@@ -3238,7 +3238,7 @@
         <v>0.35</v>
       </c>
       <c r="H30" s="3">
-        <f>C30+D30</f>
+        <f t="shared" si="0"/>
         <v>13185</v>
       </c>
       <c r="I30">
@@ -3273,7 +3273,7 @@
         <v>0.35</v>
       </c>
       <c r="H31" s="3">
-        <f>C31+D31</f>
+        <f t="shared" si="0"/>
         <v>14356</v>
       </c>
       <c r="I31" t="e">
@@ -3308,7 +3308,7 @@
         <v>0.35</v>
       </c>
       <c r="H32" s="3">
-        <f>C32+D32</f>
+        <f t="shared" si="0"/>
         <v>10993</v>
       </c>
       <c r="I32">
@@ -3343,7 +3343,7 @@
         <v>0.35</v>
       </c>
       <c r="H33" s="3">
-        <f>C33+D33</f>
+        <f t="shared" si="0"/>
         <v>7985</v>
       </c>
       <c r="I33">
